--- a/data/option_data/call/ACN.xlsx
+++ b/data/option_data/call/ACN.xlsx
@@ -638,7 +638,7 @@
         <v>146.5</v>
       </c>
       <c r="K3">
-        <v>0.4389094195556641</v>
+        <v>0.3911193701171874</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>132.56</v>
       </c>
       <c r="G4">
-        <v>129.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>125</v>
       </c>
       <c r="I4">
-        <v>139.5</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4650016879272462</v>
+        <v>1E-05</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>0.4442804595947265</v>
+        <v>0.4127866339111328</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -737,16 +737,16 @@
         <v>116.35</v>
       </c>
       <c r="G6">
-        <v>107.5</v>
+        <v>116</v>
       </c>
       <c r="H6">
         <v>145</v>
       </c>
       <c r="I6">
-        <v>117.5</v>
+        <v>120.2</v>
       </c>
       <c r="K6">
-        <v>0.3505008798217772</v>
+        <v>0.3717409017944336</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -772,19 +772,19 @@
         <v>99.90000000000001</v>
       </c>
       <c r="G7">
-        <v>109.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
       <c r="I7">
-        <v>114.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>0.3687807263183594</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -810,16 +810,16 @@
         <v>103.69</v>
       </c>
       <c r="G8">
-        <v>95.5</v>
+        <v>104.4</v>
       </c>
       <c r="H8">
         <v>160</v>
       </c>
       <c r="I8">
-        <v>104.5</v>
+        <v>107.2</v>
       </c>
       <c r="K8">
-        <v>0.3346318978881836</v>
+        <v>0.3525760543823242</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>101.4</v>
       </c>
       <c r="K9">
-        <v>0.3454655297851562</v>
+        <v>0.3240729214477538</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -918,16 +918,16 @@
         <v>88.95</v>
       </c>
       <c r="G11">
-        <v>82.8</v>
+        <v>91.5</v>
       </c>
       <c r="H11">
         <v>175</v>
       </c>
       <c r="I11">
-        <v>86.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="K11">
-        <v>0.246650599975586</v>
+        <v>0.3380193151855468</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -953,19 +953,19 @@
         <v>85.27</v>
       </c>
       <c r="G12">
-        <v>84.7</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>180</v>
       </c>
       <c r="I12">
-        <v>88.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.3263006823730469</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.2730785583496094</v>
+        <v>0.256294058227539</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1029,19 +1029,19 @@
         <v>77.09999999999999</v>
       </c>
       <c r="G14">
-        <v>73.8</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>195</v>
       </c>
       <c r="I14">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.3174048973083496</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>0.3100502345275879</v>
+        <v>0.2970956521606445</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>64.5</v>
       </c>
       <c r="K16">
-        <v>0.2517469845581054</v>
+        <v>0.2381973153686523</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>0.3013070358276367</v>
+        <v>0.2899088343811034</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0.2095873719787598</v>
+        <v>0.1969074450683594</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1216,19 +1216,19 @@
         <v>57.59</v>
       </c>
       <c r="G19">
-        <v>55.8</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>220</v>
       </c>
       <c r="I19">
-        <v>60.4</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0.2984994467163086</v>
+        <v>1E-05</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="K20">
-        <v>0.2854075366210937</v>
+        <v>0.2758556301879882</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1330,19 +1330,19 @@
         <v>49.2</v>
       </c>
       <c r="G22">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>235</v>
       </c>
       <c r="I22">
-        <v>51.1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
       <c r="K22">
-        <v>0.2887034020996093</v>
+        <v>1E-05</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1368,19 +1368,19 @@
         <v>45.8</v>
       </c>
       <c r="G23">
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>240</v>
       </c>
       <c r="I23">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>0.2766338206481933</v>
+        <v>1E-05</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.2871165039062499</v>
+        <v>0.2794871856689453</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -1444,19 +1444,19 @@
         <v>39.93</v>
       </c>
       <c r="G25">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>250</v>
       </c>
       <c r="I25">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0.2761455442810058</v>
+        <v>1E-05</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
@@ -1482,19 +1482,19 @@
         <v>35.04</v>
       </c>
       <c r="G26">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>255</v>
       </c>
       <c r="I26">
-        <v>39.7</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.2740856283569336</v>
+        <v>1E-05</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="K27">
-        <v>0.2670666555786133</v>
+        <v>0.2605207005310058</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1558,19 +1558,19 @@
         <v>30.89</v>
       </c>
       <c r="G28">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>265</v>
       </c>
       <c r="I28">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.266532603302002</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1596,19 +1596,19 @@
         <v>27.1</v>
       </c>
       <c r="G29">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>270</v>
       </c>
       <c r="I29">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.2617871673583985</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>275</v>
       </c>
       <c r="I30">
-        <v>26.3</v>
+        <v>31.7</v>
       </c>
       <c r="K30">
-        <v>0.2353134330749512</v>
+        <v>0.2674786387634278</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>24.5</v>
       </c>
       <c r="G31">
-        <v>24.6</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>280</v>
       </c>
       <c r="I31">
-        <v>27.7</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>6</v>
       </c>
       <c r="K31">
-        <v>0.2573469041442871</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>24.3</v>
       </c>
       <c r="K32">
-        <v>0.2449340033721924</v>
+        <v>0.2397994721984863</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>21.1</v>
       </c>
       <c r="G33">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>290</v>
       </c>
       <c r="I33">
-        <v>24.6</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0.2580793186950684</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.2469405140686035</v>
+        <v>0.2423629231262207</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0.2432936999511719</v>
+        <v>0.2390517990112305</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>320</v>
       </c>
       <c r="I36">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0.2449111154174805</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>330</v>
       </c>
       <c r="I37">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
       <c r="K37">
-        <v>0.2328415339660644</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>6.11</v>
       </c>
       <c r="G38">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>340</v>
       </c>
       <c r="I38">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.2304611866760254</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>4.95</v>
       </c>
       <c r="G39">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>350</v>
       </c>
       <c r="I39">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>69</v>
       </c>
       <c r="K39">
-        <v>0.2362442098999023</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>5.59</v>
       </c>
       <c r="G40">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>360</v>
       </c>
       <c r="I40">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>3</v>
       </c>
       <c r="K40">
-        <v>0.2264329066467285</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2043,19 +2043,19 @@
         <v>3.6</v>
       </c>
       <c r="G41">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>370</v>
       </c>
       <c r="I41">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0.236763003540039</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>2.95</v>
       </c>
       <c r="G42">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>380</v>
       </c>
       <c r="I42">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>14</v>
       </c>
       <c r="K42">
-        <v>0.2211686770629883</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2119,19 +2119,19 @@
         <v>3.5</v>
       </c>
       <c r="G43">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>390</v>
       </c>
       <c r="I43">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>0.2283707534790039</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>

--- a/data/option_data/call/ACN.xlsx
+++ b/data/option_data/call/ACN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>symbol</t>
   </si>
@@ -533,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,22 +559,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -599,17 +596,14 @@
       <c r="H2">
         <v>110</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>1E-05</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -634,17 +628,14 @@
       <c r="H3">
         <v>115</v>
       </c>
-      <c r="I3">
-        <v>146.5</v>
-      </c>
-      <c r="K3">
-        <v>0.3911193701171874</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3">
+        <v>0.4439752868652344</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,22 +655,19 @@
         <v>132.56</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>130.7</v>
       </c>
       <c r="H4">
         <v>125</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1E-05</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4">
+        <v>0.3626162371826172</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -705,19 +693,16 @@
         <v>130</v>
       </c>
       <c r="I5">
-        <v>134.5</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>0.4127866339111328</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4480646014404296</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -742,17 +727,14 @@
       <c r="H6">
         <v>145</v>
       </c>
-      <c r="I6">
-        <v>120.2</v>
-      </c>
-      <c r="K6">
-        <v>0.3717409017944336</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6">
+        <v>0.4017393811035156</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -772,25 +754,22 @@
         <v>99.90000000000001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3636843417358399</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -815,17 +794,14 @@
       <c r="H8">
         <v>160</v>
       </c>
-      <c r="I8">
-        <v>107.2</v>
-      </c>
-      <c r="K8">
-        <v>0.3525760543823242</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8">
+        <v>0.3768067691040039</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -850,17 +826,14 @@
       <c r="H9">
         <v>165</v>
       </c>
-      <c r="I9">
-        <v>101.4</v>
-      </c>
-      <c r="K9">
-        <v>0.3240729214477538</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9">
+        <v>0.3481205325317382</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -886,19 +859,16 @@
         <v>170</v>
       </c>
       <c r="I10">
-        <v>86.40000000000001</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
         <v>1E-05</v>
       </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -923,17 +893,14 @@
       <c r="H11">
         <v>175</v>
       </c>
-      <c r="I11">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.3380193151855468</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11">
+        <v>0.3577029562377929</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -953,25 +920,22 @@
         <v>85.27</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H12">
         <v>180</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3297186169433594</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -997,19 +961,16 @@
         <v>190</v>
       </c>
       <c r="I13">
-        <v>77.09999999999999</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.256294058227539</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2751995088195801</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1029,25 +990,22 @@
         <v>77.09999999999999</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="H14">
         <v>195</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3102180795288085</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1073,19 +1031,16 @@
         <v>200</v>
       </c>
       <c r="I15">
-        <v>73.8</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>0.2970956521606445</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3118660122680663</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1110,17 +1065,14 @@
       <c r="H16">
         <v>205</v>
       </c>
-      <c r="I16">
-        <v>64.5</v>
-      </c>
-      <c r="K16">
-        <v>0.2381973153686523</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="J16">
+        <v>0.2535017277526856</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1146,19 +1098,16 @@
         <v>210</v>
       </c>
       <c r="I17">
-        <v>66.59999999999999</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>0.2899088343811034</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3029549685668945</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1184,19 +1133,16 @@
         <v>215</v>
       </c>
       <c r="I18">
-        <v>53.3</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.1969074450683594</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2111895288085937</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1216,25 +1162,22 @@
         <v>57.59</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="H19">
         <v>220</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1E-05</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.292502802581787</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1260,19 +1203,16 @@
         <v>225</v>
       </c>
       <c r="I20">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0.2758556301879882</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2868418484497069</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1298,19 +1238,16 @@
         <v>230</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
         <v>1E-05</v>
       </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1330,25 +1267,22 @@
         <v>49.2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="H22">
         <v>235</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>1E-05</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2815776188659667</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1368,25 +1302,22 @@
         <v>45.8</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="H23">
         <v>240</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>1E-05</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2748790774536133</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1412,19 +1343,16 @@
         <v>245</v>
       </c>
       <c r="I24">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.2794871856689453</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2883524534606933</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1444,25 +1372,22 @@
         <v>39.93</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c r="H25">
         <v>250</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1E-05</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.2700573483276367</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1482,25 +1407,22 @@
         <v>35.04</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>36.7</v>
       </c>
       <c r="H26">
         <v>255</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1E-05</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.2701946760559082</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1526,19 +1448,16 @@
         <v>260</v>
       </c>
       <c r="I27">
-        <v>36.6</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>0.2605207005310058</v>
-      </c>
-      <c r="L27" t="b">
+        <v>0.2681805360412597</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1558,25 +1477,22 @@
         <v>30.89</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="H28">
         <v>265</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.2690045024108886</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1596,25 +1512,22 @@
         <v>27.1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="H29">
         <v>270</v>
       </c>
       <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.2614057014465332</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1639,17 +1552,14 @@
       <c r="H30">
         <v>275</v>
       </c>
-      <c r="I30">
-        <v>31.7</v>
-      </c>
-      <c r="K30">
-        <v>0.2674786387634278</v>
-      </c>
-      <c r="L30" t="b">
+      <c r="J30">
+        <v>0.2742687319946289</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1666,28 +1576,25 @@
         <v>280</v>
       </c>
       <c r="F31">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H31">
         <v>280</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0.2611310459899902</v>
+      </c>
+      <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>6</v>
-      </c>
-      <c r="K31">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1712,17 +1619,14 @@
       <c r="H32">
         <v>285</v>
       </c>
-      <c r="I32">
-        <v>24.3</v>
-      </c>
-      <c r="K32">
-        <v>0.2397994721984863</v>
-      </c>
-      <c r="L32" t="b">
+      <c r="J32">
+        <v>0.2458571508789062</v>
+      </c>
+      <c r="K32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1742,25 +1646,22 @@
         <v>21.1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="H33">
         <v>290</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.2575757836914063</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1786,19 +1687,16 @@
         <v>300</v>
       </c>
       <c r="I34">
-        <v>20.2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0.2423629231262207</v>
-      </c>
-      <c r="L34" t="b">
+        <v>0.2478102563476562</v>
+      </c>
+      <c r="K34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1824,19 +1722,16 @@
         <v>310</v>
       </c>
       <c r="I35">
-        <v>17.2</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0.2390517990112305</v>
-      </c>
-      <c r="L35" t="b">
+        <v>0.2441176663208008</v>
+      </c>
+      <c r="K35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1856,22 +1751,19 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="H36">
         <v>320</v>
       </c>
-      <c r="I36">
+      <c r="J36">
+        <v>0.2433547344970703</v>
+      </c>
+      <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1891,25 +1783,22 @@
         <v>8</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="H37">
         <v>330</v>
       </c>
       <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>0.231025756225586</v>
+      </c>
+      <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>32</v>
-      </c>
-      <c r="K37">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1929,25 +1818,22 @@
         <v>6.11</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H38">
         <v>340</v>
       </c>
       <c r="I38">
+        <v>55</v>
+      </c>
+      <c r="J38">
+        <v>0.2266007516479492</v>
+      </c>
+      <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>55</v>
-      </c>
-      <c r="K38">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1967,25 +1853,22 @@
         <v>4.95</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="H39">
         <v>350</v>
       </c>
       <c r="I39">
+        <v>69</v>
+      </c>
+      <c r="J39">
+        <v>0.2242966975402831</v>
+      </c>
+      <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>69</v>
-      </c>
-      <c r="K39">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2005,25 +1888,22 @@
         <v>5.59</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="H40">
         <v>360</v>
       </c>
       <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0.2227860925292968</v>
+      </c>
+      <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2043,25 +1923,22 @@
         <v>3.6</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H41">
         <v>370</v>
       </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.23633576171875</v>
+      </c>
+      <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2081,25 +1958,22 @@
         <v>2.95</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
         <v>380</v>
       </c>
       <c r="I42">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>0.2218095397949219</v>
+      </c>
+      <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>14</v>
-      </c>
-      <c r="K42">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2119,21 +1993,18 @@
         <v>3.5</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H43">
         <v>390</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L43" t="b">
+        <v>0.2190019506835937</v>
+      </c>
+      <c r="K43" t="b">
         <v>0</v>
       </c>
     </row>
